--- a/Excel/MoneyOperator.xlsx
+++ b/Excel/MoneyOperator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miyuk\Documents\2024前期Gチーム\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyake\ドキュメント\ゲーム制作用ファイル\ゲーム製作 No.4\PoorRailroadCompany\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97F589C9-B04B-47B5-8291-B2E112B6EE26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20589AFC-3079-4293-95F6-A95A9CB2C22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E6CE54A0-566C-4467-8D5D-0FA7D834865F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11544" windowHeight="12240" xr2:uid="{E6CE54A0-566C-4467-8D5D-0FA7D834865F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,15 +438,15 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>-25</v>
       </c>
@@ -471,7 +471,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
